--- a/target/classes/public/ThirdYear.xlsx
+++ b/target/classes/public/ThirdYear.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="65">
   <si>
     <t>CSE</t>
   </si>
@@ -196,6 +196,24 @@
   </si>
   <si>
     <t>EE694B   /   EE692</t>
+  </si>
+  <si>
+    <t>EE691   /   EE694B</t>
+  </si>
+  <si>
+    <t>EE692   /   EE693</t>
+  </si>
+  <si>
+    <t>EE694B   /   EE691</t>
+  </si>
+  <si>
+    <t>ECE695   /   ECE692</t>
+  </si>
+  <si>
+    <t>ECE692   /   ECE694</t>
+  </si>
+  <si>
+    <t>ECE694   /   ECE695</t>
   </si>
 </sst>
 </file>
@@ -537,26 +555,25 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4"/>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="5">
@@ -565,29 +582,25 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6"/>
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
       <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6"/>
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
       <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6"/>
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
       <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6"/>
-      <c r="H6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -597,27 +610,26 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8"/>
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
@@ -630,25 +642,27 @@
       <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10"/>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
         <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10"/>
-      <c r="F10" t="s">
-        <v>12</v>
       </c>
       <c r="G10"/>
       <c r="H10" t="s">
         <v>12</v>
       </c>
-      <c r="I10" t="s">
-        <v>7</v>
-      </c>
+      <c r="I10"/>
       <c r="J10" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="K10"/>
+      <c r="L10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +672,29 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D12"/>
       <c r="E12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" t="s">
-        <v>6</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F12"/>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="H12"/>
+      <c r="I12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12"/>
+      <c r="K12" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13">
@@ -696,16 +714,16 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E16"/>
       <c r="F16" t="s">
@@ -716,7 +734,7 @@
         <v>12</v>
       </c>
       <c r="I16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
@@ -726,25 +744,25 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -754,28 +772,26 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20"/>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
         <v>20</v>
       </c>
-      <c r="D20"/>
-      <c r="E20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20"/>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
       <c r="H20" t="s">
-        <v>25</v>
-      </c>
-      <c r="I20"/>
-      <c r="J20" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21">
@@ -785,26 +801,25 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22"/>
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F22" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="G22" t="s">
-        <v>54</v>
-      </c>
-      <c r="H22" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23">
@@ -817,22 +832,25 @@
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
         <v>23</v>
       </c>
+      <c r="C24"/>
       <c r="D24" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F24"/>
       <c r="G24" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="H24"/>
+      <c r="I24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="25">
@@ -851,29 +869,26 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28"/>
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
       <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28"/>
+        <v>31</v>
+      </c>
+      <c r="C28" t="s">
+        <v>28</v>
+      </c>
       <c r="D28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28"/>
+        <v>29</v>
+      </c>
+      <c r="E28" t="s">
+        <v>62</v>
+      </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
-      </c>
-      <c r="H28" t="s">
-        <v>29</v>
-      </c>
-      <c r="I28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J28" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29">
@@ -883,26 +898,28 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" t="s">
         <v>31</v>
       </c>
-      <c r="B30"/>
-      <c r="C30" t="s">
-        <v>12</v>
-      </c>
+      <c r="C30"/>
       <c r="D30" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E30" t="s">
-        <v>28</v>
-      </c>
-      <c r="F30" t="s">
-        <v>34</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="F30"/>
       <c r="G30" t="s">
-        <v>34</v>
-      </c>
-      <c r="H30" t="s">
-        <v>34</v>
+        <v>12</v>
+      </c>
+      <c r="H30"/>
+      <c r="I30" t="s">
+        <v>12</v>
+      </c>
+      <c r="J30" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="31">
@@ -911,12 +928,14 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32"/>
+      <c r="A32" t="s">
+        <v>63</v>
+      </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="D32" t="s">
         <v>31</v>
@@ -926,13 +945,11 @@
         <v>12</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
-      </c>
-      <c r="H32" t="s">
         <v>28</v>
       </c>
+      <c r="H32"/>
       <c r="I32" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
@@ -953,14 +970,15 @@
       <c r="D34" t="s">
         <v>24</v>
       </c>
-      <c r="E34" t="s">
-        <v>33</v>
-      </c>
+      <c r="E34"/>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G34" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="H34" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="35">
@@ -970,25 +988,25 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E36" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F36" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="G36" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37">
@@ -1008,29 +1026,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40"/>
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
       <c r="C40" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40"/>
+        <v>39</v>
+      </c>
+      <c r="D40" t="s">
+        <v>45</v>
+      </c>
       <c r="E40" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="F40" t="s">
-        <v>43</v>
-      </c>
-      <c r="G40"/>
-      <c r="H40" t="s">
-        <v>12</v>
-      </c>
-      <c r="I40"/>
-      <c r="J40" t="s">
-        <v>12</v>
-      </c>
-      <c r="K40" t="s">
-        <v>41</v>
+        <v>48</v>
+      </c>
+      <c r="G40" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="41">
@@ -1040,25 +1054,27 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42"/>
+      <c r="E42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42"/>
+      <c r="G42" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" t="s">
+        <v>41</v>
+      </c>
+      <c r="I42" t="s">
         <v>43</v>
-      </c>
-      <c r="B42" t="s">
-        <v>55</v>
-      </c>
-      <c r="C42" t="s">
-        <v>55</v>
-      </c>
-      <c r="D42" t="s">
-        <v>55</v>
-      </c>
-      <c r="E42" t="s">
-        <v>45</v>
-      </c>
-      <c r="F42" t="s">
-        <v>42</v>
-      </c>
-      <c r="G42" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="43">
@@ -1067,27 +1083,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s">
+      <c r="A44"/>
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" t="s">
         <v>38</v>
       </c>
-      <c r="B44" t="s">
-        <v>41</v>
-      </c>
-      <c r="C44"/>
-      <c r="D44" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="E44"/>
+      <c r="F44" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
         <v>37</v>
       </c>
-      <c r="F44" t="s">
-        <v>47</v>
-      </c>
-      <c r="G44" t="s">
-        <v>42</v>
-      </c>
-      <c r="H44" t="s">
-        <v>45</v>
+      <c r="I44" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="45">
@@ -1096,26 +1113,27 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s">
+      <c r="A46"/>
+      <c r="B46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" t="s">
+        <v>41</v>
+      </c>
+      <c r="D46" t="s">
         <v>38</v>
       </c>
-      <c r="B46" t="s">
-        <v>45</v>
-      </c>
-      <c r="C46" t="s">
-        <v>44</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>42</v>
       </c>
-      <c r="E46" t="s">
-        <v>56</v>
-      </c>
       <c r="F46" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="G46" t="s">
-        <v>56</v>
+        <v>40</v>
+      </c>
+      <c r="H46" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="47">
@@ -1125,25 +1143,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D48" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48" t="s">
+        <v>45</v>
+      </c>
+      <c r="F48" t="s">
         <v>43</v>
       </c>
-      <c r="E48" t="s">
-        <v>58</v>
-      </c>
-      <c r="F48" t="s">
-        <v>58</v>
-      </c>
       <c r="G48" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/public/ThirdYear.xlsx
+++ b/target/classes/public/ThirdYear.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="66">
   <si>
     <t>CSE</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>ECE694   /   ECE695</t>
+  </si>
+  <si>
+    <t>EE693   /   EE692</t>
   </si>
 </sst>
 </file>
@@ -555,25 +558,27 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" t="s">
-        <v>50</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B4"/>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
+      </c>
+      <c r="H4"/>
+      <c r="I4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -583,25 +588,26 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -611,25 +617,29 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D8"/>
       <c r="E8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" t="s">
-        <v>51</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F8"/>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>12</v>
+      </c>
+      <c r="H8"/>
+      <c r="I8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8"/>
+      <c r="K8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -638,30 +648,27 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10"/>
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
       <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10"/>
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
       <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
         <v>5</v>
       </c>
+      <c r="E10"/>
       <c r="F10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10"/>
-      <c r="H10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10"/>
-      <c r="J10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10"/>
-      <c r="L10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10"/>
+      <c r="I10" t="s">
         <v>12</v>
       </c>
     </row>
@@ -672,29 +679,25 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>9</v>
       </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12"/>
       <c r="E12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12"/>
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>51</v>
+      </c>
       <c r="G12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12"/>
-      <c r="I12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12"/>
-      <c r="K12" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13">
@@ -714,27 +717,25 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16"/>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
       <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16"/>
-      <c r="H16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" t="s">
-        <v>19</v>
+        <v>26</v>
+      </c>
+      <c r="G16" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17">
@@ -744,25 +745,25 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" t="s">
         <v>25</v>
       </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" t="s">
-        <v>18</v>
-      </c>
       <c r="G18" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
@@ -771,27 +772,30 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s">
-        <v>26</v>
-      </c>
+      <c r="A20"/>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E20"/>
       <c r="F20" t="s">
         <v>12</v>
       </c>
-      <c r="G20" t="s">
-        <v>20</v>
-      </c>
+      <c r="G20"/>
       <c r="H20" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="I20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20"/>
+      <c r="K20" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="21">
@@ -801,25 +805,26 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" t="s">
-        <v>24</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E22"/>
       <c r="F22" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G22" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="H22" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="23">
@@ -829,27 +834,25 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24"/>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" t="s">
         <v>19</v>
       </c>
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24"/>
-      <c r="D24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24"/>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24"/>
-      <c r="I24" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" t="s">
+      <c r="H24" t="s">
         <v>20</v>
       </c>
     </row>
@@ -870,25 +873,28 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28"/>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28"/>
+      <c r="F28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28"/>
+      <c r="H28" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J28" t="s">
         <v>32</v>
-      </c>
-      <c r="B28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" t="s">
-        <v>62</v>
-      </c>
-      <c r="F28" t="s">
-        <v>62</v>
-      </c>
-      <c r="G28" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="29">
@@ -900,26 +906,25 @@
       <c r="A30" t="s">
         <v>14</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30"/>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
         <v>31</v>
       </c>
-      <c r="C30"/>
-      <c r="D30" t="s">
-        <v>12</v>
-      </c>
       <c r="E30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F30"/>
       <c r="G30" t="s">
         <v>12</v>
       </c>
-      <c r="H30"/>
+      <c r="H30" t="s">
+        <v>28</v>
+      </c>
       <c r="I30" t="s">
-        <v>12</v>
-      </c>
-      <c r="J30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
@@ -929,27 +934,25 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>31</v>
-      </c>
-      <c r="E32"/>
+        <v>32</v>
+      </c>
+      <c r="E32" t="s">
+        <v>62</v>
+      </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="G32" t="s">
-        <v>28</v>
-      </c>
-      <c r="H32"/>
-      <c r="I32" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33">
@@ -959,26 +962,26 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34"/>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" t="s">
         <v>24</v>
       </c>
-      <c r="C34" t="s">
+      <c r="G34" t="s">
         <v>24</v>
       </c>
-      <c r="D34" t="s">
+      <c r="H34" t="s">
         <v>24</v>
-      </c>
-      <c r="E34"/>
-      <c r="F34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" t="s">
-        <v>32</v>
-      </c>
-      <c r="H34" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="35">
@@ -988,16 +991,16 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="D36" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="E36" t="s">
         <v>64</v>
@@ -1026,25 +1029,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C40" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D40" t="s">
+        <v>56</v>
+      </c>
+      <c r="E40" t="s">
+        <v>47</v>
+      </c>
+      <c r="F40" t="s">
+        <v>41</v>
+      </c>
+      <c r="G40" t="s">
         <v>45</v>
-      </c>
-      <c r="E40" t="s">
-        <v>48</v>
-      </c>
-      <c r="F40" t="s">
-        <v>48</v>
-      </c>
-      <c r="G40" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="41">
@@ -1054,26 +1057,24 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" t="s">
         <v>42</v>
       </c>
-      <c r="C42" t="s">
+      <c r="F42" t="s">
         <v>38</v>
       </c>
-      <c r="D42"/>
-      <c r="E42" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42"/>
       <c r="G42" t="s">
-        <v>12</v>
-      </c>
-      <c r="H42" t="s">
-        <v>41</v>
-      </c>
-      <c r="I42" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1083,28 +1084,26 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44"/>
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C44" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" t="s">
         <v>41</v>
       </c>
-      <c r="D44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E44"/>
+      <c r="E44" t="s">
+        <v>57</v>
+      </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
-      </c>
-      <c r="H44" t="s">
-        <v>37</v>
-      </c>
-      <c r="I44" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45">
@@ -1113,27 +1112,30 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46"/>
-      <c r="B46" t="s">
-        <v>12</v>
-      </c>
+      <c r="A46" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46"/>
       <c r="C46" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="D46" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E46" t="s">
-        <v>42</v>
-      </c>
-      <c r="F46" t="s">
-        <v>40</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F46"/>
       <c r="G46" t="s">
-        <v>40</v>
-      </c>
-      <c r="H46" t="s">
-        <v>40</v>
+        <v>12</v>
+      </c>
+      <c r="H46"/>
+      <c r="I46" t="s">
+        <v>12</v>
+      </c>
+      <c r="J46"/>
+      <c r="K46" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="47">
@@ -1143,25 +1145,26 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C48" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D48" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
-      </c>
-      <c r="F48" t="s">
-        <v>43</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="F48"/>
       <c r="G48" t="s">
-        <v>44</v>
+        <v>12</v>
+      </c>
+      <c r="H48" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/public/ThirdYear.xlsx
+++ b/target/classes/public/ThirdYear.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="111">
   <si>
     <t>CSE</t>
   </si>
@@ -217,6 +217,141 @@
   </si>
   <si>
     <t>EE693   /   EE692</t>
+  </si>
+  <si>
+    <t>CS604A  /  CS604B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HU601  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS602  /  </t>
+  </si>
+  <si>
+    <t>CS692  /  CS693</t>
+  </si>
+  <si>
+    <t>CS605A  /  CS605B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS601  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS603  /  </t>
+  </si>
+  <si>
+    <t>CS693  /  CS691</t>
+  </si>
+  <si>
+    <t>CS691  /  CS692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HU685  /  </t>
+  </si>
+  <si>
+    <t>IT601A  /  IT601B</t>
+  </si>
+  <si>
+    <t>IT604A  /  IT604B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT603  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT605  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT602  /  </t>
+  </si>
+  <si>
+    <t>IT693  /  IT692</t>
+  </si>
+  <si>
+    <t>IT692  /  IT695</t>
+  </si>
+  <si>
+    <t>IT695  /  IT693</t>
+  </si>
+  <si>
+    <t>ECE603A  /  ECE603B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECE604  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECE601  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECE605A  /  </t>
+  </si>
+  <si>
+    <t>ECE695  /  ECE694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECE602  /  </t>
+  </si>
+  <si>
+    <t>ECE694  /  ECE692</t>
+  </si>
+  <si>
+    <t>ECE692  /  ECE695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE601  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE602  /  </t>
+  </si>
+  <si>
+    <t>EE604A  /  EE604B</t>
+  </si>
+  <si>
+    <t>EE605A  /  EE605B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE603  /  </t>
+  </si>
+  <si>
+    <t>EE694B  /  EE691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE601(T)  /  </t>
+  </si>
+  <si>
+    <t>EE693  /  EE692</t>
+  </si>
+  <si>
+    <t>EE691  /  EE694B</t>
+  </si>
+  <si>
+    <t>EE692  /  EE693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE602(T)  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE603(T)  /  </t>
+  </si>
+  <si>
+    <t>IT692  /  IT693</t>
+  </si>
+  <si>
+    <t>IT695  /  IT692</t>
+  </si>
+  <si>
+    <t>IT693  /  IT695</t>
+  </si>
+  <si>
+    <t>EE692  /  EE694B</t>
+  </si>
+  <si>
+    <t>EE693  /  EE691</t>
+  </si>
+  <si>
+    <t>EE694B  /  EE693</t>
+  </si>
+  <si>
+    <t>EE691  /  EE692</t>
   </si>
 </sst>
 </file>
@@ -558,26 +693,24 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4"/>
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4"/>
-      <c r="I4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -588,26 +721,25 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6"/>
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>69</v>
+      </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="G6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7">
@@ -617,29 +749,25 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8"/>
+        <v>70</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
       <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8"/>
+        <v>67</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
       <c r="G8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8"/>
-      <c r="I8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8"/>
-      <c r="K8" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9">
@@ -649,26 +777,24 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10"/>
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="G10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10"/>
-      <c r="I10" t="s">
         <v>12</v>
       </c>
     </row>
@@ -679,25 +805,25 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
@@ -717,25 +843,25 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="E16" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="F16" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
@@ -745,25 +871,25 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19">
@@ -772,30 +898,26 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20"/>
+      <c r="A20" t="s">
+        <v>76</v>
+      </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20"/>
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>106</v>
+      </c>
       <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20"/>
-      <c r="H20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20"/>
-      <c r="K20" t="s">
-        <v>12</v>
+        <v>106</v>
+      </c>
+      <c r="G20" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="21">
@@ -805,26 +927,25 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="D22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22"/>
+        <v>79</v>
+      </c>
+      <c r="E22" t="s">
+        <v>75</v>
+      </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="G22" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23">
@@ -834,26 +955,25 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24"/>
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="F24" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
@@ -873,28 +993,25 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28"/>
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="D28" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28"/>
+        <v>85</v>
+      </c>
+      <c r="E28" t="s">
+        <v>87</v>
+      </c>
       <c r="F28" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28"/>
-      <c r="H28" t="s">
-        <v>12</v>
-      </c>
-      <c r="I28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J28" t="s">
-        <v>32</v>
+        <v>89</v>
+      </c>
+      <c r="G28" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="29">
@@ -904,27 +1021,25 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30"/>
+        <v>85</v>
+      </c>
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D30" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E30" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30"/>
+        <v>91</v>
+      </c>
+      <c r="F30" t="s">
+        <v>91</v>
+      </c>
       <c r="G30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" t="s">
-        <v>28</v>
-      </c>
-      <c r="I30" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31">
@@ -934,25 +1049,25 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="D32" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="G32" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
@@ -962,26 +1077,25 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34"/>
+        <v>67</v>
+      </c>
+      <c r="B34" t="s">
+        <v>87</v>
+      </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="D34" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="E34" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="G34" t="s">
-        <v>24</v>
-      </c>
-      <c r="H34" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35">
@@ -991,25 +1105,25 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="C36" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="D36" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="E36" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="F36" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="G36" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37">
@@ -1029,25 +1143,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="D40" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="E40" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="F40" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41">
@@ -1057,25 +1171,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="D42" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="E42" t="s">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="G42" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43">
@@ -1085,25 +1199,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="B44" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C44" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="D44" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E44" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="F44" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="G44" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45">
@@ -1113,29 +1227,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>42</v>
-      </c>
-      <c r="B46"/>
+        <v>96</v>
+      </c>
+      <c r="B46" t="s">
+        <v>110</v>
+      </c>
       <c r="C46" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="D46" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
-      </c>
-      <c r="F46"/>
+        <v>98</v>
+      </c>
+      <c r="F46" t="s">
+        <v>103</v>
+      </c>
       <c r="G46" t="s">
-        <v>12</v>
-      </c>
-      <c r="H46"/>
-      <c r="I46" t="s">
-        <v>12</v>
-      </c>
-      <c r="J46"/>
-      <c r="K46" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47">
@@ -1145,26 +1255,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="C48" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="D48" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E48" t="s">
-        <v>37</v>
-      </c>
-      <c r="F48"/>
+        <v>95</v>
+      </c>
+      <c r="F48" t="s">
+        <v>93</v>
+      </c>
       <c r="G48" t="s">
-        <v>12</v>
-      </c>
-      <c r="H48" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/public/ThirdYear.xlsx
+++ b/target/classes/public/ThirdYear.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2184" uniqueCount="155">
   <si>
     <t>CSE</t>
   </si>
@@ -352,6 +352,138 @@
   </si>
   <si>
     <t>EE691  /  EE692</t>
+  </si>
+  <si>
+    <t>EE693  /  EE694B</t>
+  </si>
+  <si>
+    <t>EE692  /  EE691</t>
+  </si>
+  <si>
+    <t>CS604A[DC]  /  CS604B[SLa]</t>
+  </si>
+  <si>
+    <t>CS601[SSK]  /  []</t>
+  </si>
+  <si>
+    <t>CS605A[AH]  /  CS605B[SDe]</t>
+  </si>
+  <si>
+    <t>HU601[AnD]  /  []</t>
+  </si>
+  <si>
+    <t>CS603[BDu]  /  []</t>
+  </si>
+  <si>
+    <t>CS602[DC]  /  []</t>
+  </si>
+  <si>
+    <t>CS692[DC, GY]  /  CS691[SSK, SDe]</t>
+  </si>
+  <si>
+    <t>CS691[SSK, SDe]  /  CS693[BDu, AP]</t>
+  </si>
+  <si>
+    <t>CS693[BDu, AP]  /  CS692[DC, SSK]</t>
+  </si>
+  <si>
+    <t>IT602[SU]  /  []</t>
+  </si>
+  <si>
+    <t>IT603[ARC]  /  []</t>
+  </si>
+  <si>
+    <t>IT604A[AB]  /  IT604B[RG]</t>
+  </si>
+  <si>
+    <t>IT601A[AB]  /  IT601B[SL]</t>
+  </si>
+  <si>
+    <t>IT693[SU, AD]  /  IT692[ARC, KDa]</t>
+  </si>
+  <si>
+    <t>IT605[AGh]  /  []</t>
+  </si>
+  <si>
+    <t>HU601[SA]  /  []</t>
+  </si>
+  <si>
+    <t>HU685[ACh, SSR]  /  []</t>
+  </si>
+  <si>
+    <t>IT692[ARC, KDa]  /  IT695[AGh, AB]</t>
+  </si>
+  <si>
+    <t>IT695[AGh, AB]  /  IT693[SU, AD]</t>
+  </si>
+  <si>
+    <t>ECE603A[PC]  /  ECE603B[JA]</t>
+  </si>
+  <si>
+    <t>ECE604[AnC]  /  []</t>
+  </si>
+  <si>
+    <t>HU601[TR]  /  []</t>
+  </si>
+  <si>
+    <t>ECE601[SSG]  /  []</t>
+  </si>
+  <si>
+    <t>ECE695[AD]  /  ECE692[SD]</t>
+  </si>
+  <si>
+    <t>ECE602[TD]  /  []</t>
+  </si>
+  <si>
+    <t>ECE605A[AD]  /  []</t>
+  </si>
+  <si>
+    <t>ECE694[TD]  /  ECE695[AD]</t>
+  </si>
+  <si>
+    <t>ECE692[SD]  /  ECE694[TD]</t>
+  </si>
+  <si>
+    <t>HU685[ACh, AnC]  /  []</t>
+  </si>
+  <si>
+    <t>EE602[ABo]  /  []</t>
+  </si>
+  <si>
+    <t>EE604A[DC]  /  EE604B[GY]</t>
+  </si>
+  <si>
+    <t>EE603[SKB]  /  []</t>
+  </si>
+  <si>
+    <t>EE693[SDG, SMo]  /  EE694B[AP, DC]</t>
+  </si>
+  <si>
+    <t>EE605A[IB]  /  EE605B[JA]</t>
+  </si>
+  <si>
+    <t>EE694B[GY, SDe]  /  EE693[SDG, SMo]</t>
+  </si>
+  <si>
+    <t>EE603(T)[SKB, SDG]  /  []</t>
+  </si>
+  <si>
+    <t>EE691[PG, ASG]  /  EE692[ABo, SDC]</t>
+  </si>
+  <si>
+    <t>EE601[PG]  /  []</t>
+  </si>
+  <si>
+    <t>EE605A[IB]  /  EE605B[SD]</t>
+  </si>
+  <si>
+    <t>EE602(T)[ABo, SDC]  /  []</t>
+  </si>
+  <si>
+    <t>EE601(T)[PG, ASG]  /  []</t>
+  </si>
+  <si>
+    <t>EE692[ABo, SDC]  /  EE691[PG, ASG]</t>
   </si>
 </sst>
 </file>
@@ -693,25 +825,25 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5">
@@ -721,25 +853,25 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7">
@@ -749,25 +881,25 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -777,25 +909,25 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
@@ -805,25 +937,25 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="E12" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="F12" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="G12" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13">
@@ -843,25 +975,25 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="E16" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="F16" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="G16" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17">
@@ -871,25 +1003,25 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="B18" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="C18" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="D18" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="E18" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="F18" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="G18" t="s">
-        <v>76</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19">
@@ -899,25 +1031,25 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="E20" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21">
@@ -927,25 +1059,25 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="E22" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="F22" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="G22" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23">
@@ -955,25 +1087,25 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="E24" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="G24" t="s">
-        <v>12</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25">
@@ -993,25 +1125,25 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="C28" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="D28" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="E28" t="s">
-        <v>87</v>
+        <v>136</v>
       </c>
       <c r="F28" t="s">
-        <v>89</v>
+        <v>136</v>
       </c>
       <c r="G28" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29">
@@ -1021,25 +1153,25 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>134</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="C30" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="E30" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="F30" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="G30" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31">
@@ -1049,25 +1181,25 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="E32" t="s">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="F32" t="s">
-        <v>89</v>
+        <v>139</v>
       </c>
       <c r="G32" t="s">
-        <v>12</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33">
@@ -1077,25 +1209,25 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="C34" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="D34" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="E34" t="s">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="F34" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="G34" t="s">
-        <v>85</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35">
@@ -1105,25 +1237,25 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="C36" t="s">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="D36" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="E36" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>88</v>
+        <v>135</v>
       </c>
       <c r="G36" t="s">
-        <v>88</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37">
@@ -1143,25 +1275,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="C40" t="s">
-        <v>93</v>
+        <v>143</v>
       </c>
       <c r="D40" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="E40" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="F40" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="G40" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41">
@@ -1171,25 +1303,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>92</v>
+        <v>146</v>
       </c>
       <c r="B42" t="s">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="C42" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="D42" t="s">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="E42" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="G42" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43">
@@ -1199,25 +1331,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="C44" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="D44" t="s">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="E44" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="F44" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="G44" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45">
@@ -1227,25 +1359,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="B46" t="s">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="C46" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="D46" t="s">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="E46" t="s">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c r="F46" t="s">
-        <v>103</v>
+        <v>154</v>
       </c>
       <c r="G46" t="s">
-        <v>94</v>
+        <v>154</v>
       </c>
     </row>
     <row r="47">
@@ -1255,25 +1387,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>96</v>
+        <v>146</v>
       </c>
       <c r="B48" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="C48" t="s">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="D48" t="s">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="G48" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
